--- a/EquipmentModelBulkLoadTool/SimpleExample.xlsx
+++ b/EquipmentModelBulkLoadTool/SimpleExample.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.58.44.141\sharedfolder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Examples\EquipmentModelBulkLoadTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2DCCEA-0C39-49B4-9160-EC32F6F0C45A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1263B635-ECB2-4FF5-8B28-D7705885D9BC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3E895CE0-B3EA-4AE3-B408-2B90AE8526E7}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{3E895CE0-B3EA-4AE3-B408-2B90AE8526E7}"/>
   </bookViews>
   <sheets>
     <sheet name="Models" sheetId="1" r:id="rId1"/>
@@ -64,9 +64,6 @@
     <t>Instance : Tank</t>
   </si>
   <si>
-    <t>Path</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -104,6 +101,9 @@
   </si>
   <si>
     <t>Example site.Water transfer system.Tank area</t>
+  </si>
+  <si>
+    <t>Parent</t>
   </si>
 </sst>
 </file>
@@ -503,19 +503,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0B10D80-404A-4E27-9E2C-231BD96A55AB}">
   <dimension ref="C2:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C2" s="1" t="s">
         <v>0</v>
       </c>
@@ -529,7 +529,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C3" t="s">
         <v>4</v>
       </c>
@@ -543,7 +543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
         <v>7</v>
       </c>
@@ -563,31 +563,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91210B48-3707-4D6E-850B-0BA81C67EAED}">
   <dimension ref="B3:J5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:J1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="42.54296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>4</v>
@@ -596,53 +596,53 @@
         <v>7</v>
       </c>
       <c r="G3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="3" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4">
         <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I4">
         <v>11111</v>
       </c>
       <c r="J4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="C5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5">
         <v>20</v>
